--- a/2.6.+Cross+table+and+scatter+plot_exercise.xlsx
+++ b/2.6.+Cross+table+and+scatter+plot_exercise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d04025c766eef03f/workspace/365DataScience-ExcelStatisticsTasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_374126F27C6C8EBBAC14806FC8EA2F4EB5CCA9DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F934750-B40C-48FA-A324-7EDD6A6C7833}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross table" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Scatter plot</t>
   </si>
@@ -99,11 +100,38 @@
   <si>
     <t>You have employment data about country X. You have been asked to prepare a cross-table showing that data.</t>
   </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-45</t>
+  </si>
+  <si>
+    <t>45-55</t>
+  </si>
+  <si>
+    <t>55-65</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Age \ Employement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,11 +216,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -209,26 +306,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,10 +353,4046 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Employment % by age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cross table'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cross table'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cross table'!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C0D-4AE2-9F25-D5600AF3BBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cross table'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unemployed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cross table'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cross table'!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C0D-4AE2-9F25-D5600AF3BBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1950436704"/>
+        <c:axId val="1950434784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1950436704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="3175">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950434784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1950434784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950436704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Apple / Google</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter plot'!$C$10:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>116.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>132.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>135.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>137.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>136.53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>136.93</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139.79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>138.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>139.78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>138.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>139.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>140.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>140.69</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>139.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>141.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>139.84</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>141.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140.88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>144.12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>143.93</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>144.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>143.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>143.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>141.63</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>141.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>141.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>141.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>140.68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>142.44</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>142.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>144.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>143.68</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>143.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>143.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>147.51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>147.06</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>146.53</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>153.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>153.99</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>153.26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>153.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>156.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>155.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>155.47</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>150.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>152.54</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>153.06</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>153.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>153.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>153.87</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>153.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>153.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>152.76</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>153.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter plot'!$D$10:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>808.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>807.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>813.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>825.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>827.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>826.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>829.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>829.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>830.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>827.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>829.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>824.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>828.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>844.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>849.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>858.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>856.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>845.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>823.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>820.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>815.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>818.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>820.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>821.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>829.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>829.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>830.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>834.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>838.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>840.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>837.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>842.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>846.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>849.27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>851.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>847.81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>849.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>844.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>856.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>849.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>849.08</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>847.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>851.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>853.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>857.84</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>861.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>864.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>865.91</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>868.39</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>872.37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>867.91</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>850.14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>849.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>839.65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>835.14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>838.51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>840.63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>849.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>849.48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>847.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>856.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>852.57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>848.91</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>845.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>842.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>841.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>839.88</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>841.46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>840.18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>855.13</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>853.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>856.51</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>860.08</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>858.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>878.93</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>888.84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>889.14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>891.44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>924.52</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>932.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>937.09</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>948.45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>954.72</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950.28</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>958.69</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>956.71</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>954.84</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>955.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>955.14</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>959.22</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>964.61</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>942.17</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>954.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>964.07</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970.55</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>977.61</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>991.86</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>993.27</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>996.17</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>987.09</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>988.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DA3-4386-9EB1-C399C5896F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291925440"/>
+        <c:axId val="291920640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291925440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291920640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291920640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291925440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Apple / Bank of America</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter plot'!$C$10:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>116.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>132.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>135.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>137.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>136.53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>136.93</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139.79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>138.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>139.78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>138.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>139.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>140.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>140.69</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>139.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>141.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>139.84</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>141.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140.88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>144.12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>143.93</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>144.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>143.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>143.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>141.63</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>141.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>141.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>141.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>140.68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>142.44</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>142.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>144.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>143.68</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>143.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>143.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>147.51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>147.06</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>146.53</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>153.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>153.99</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>153.26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>153.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>156.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>155.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>155.47</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>150.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>152.54</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>153.06</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>153.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>153.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>153.87</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>153.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>153.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>152.76</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>153.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter plot'!$E$10:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>22.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.35</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24.86</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.48</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.35</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.59</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.59</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.63</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23.61</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23.53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.77</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.74</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>22.41</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>22.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E12-428C-B141-24D8CA2C0001}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291925440"/>
+        <c:axId val="291920640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291925440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291920640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291920640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291925440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24A9CB8-A0A9-B31B-8557-4BC90494D320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39033</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202597</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B361798B-BC13-E6CD-416F-1E8B23D372DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275291</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>64858</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7865BFE3-BCBE-4B7C-A192-21962DF4B6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +4430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +4536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,45 +4678,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -587,43 +4726,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -632,7 +4771,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
@@ -641,356 +4780,130 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:15" ht="12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" ht="12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="2:15" ht="12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="2:15" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="2:15" ht="12" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+    <row r="14" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:G160"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="3.21875" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="5.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="3.28515625" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -998,7 +4911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +4919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +4927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1022,360 +4935,396 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="9" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>42738</v>
+      </c>
+      <c r="C10" s="4">
+        <v>116.15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>808.01</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>42739</v>
+      </c>
+      <c r="C11" s="4">
+        <v>116.02</v>
+      </c>
+      <c r="D11" s="4">
+        <v>807.77</v>
+      </c>
+      <c r="E11" s="1">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>42740</v>
+      </c>
+      <c r="C12" s="4">
+        <v>116.61</v>
+      </c>
+      <c r="D12" s="4">
+        <v>813.02</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22.68</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <v>42738</v>
+        <v>42741</v>
       </c>
       <c r="C13" s="4">
-        <v>116.15</v>
+        <v>117.91</v>
       </c>
       <c r="D13" s="4">
-        <v>808.01</v>
+        <v>825.21</v>
       </c>
       <c r="E13" s="1">
-        <v>22.53</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <v>42739</v>
+        <v>42744</v>
       </c>
       <c r="C14" s="4">
-        <v>116.02</v>
+        <v>118.99</v>
       </c>
       <c r="D14" s="4">
-        <v>807.77</v>
+        <v>827.18</v>
       </c>
       <c r="E14" s="1">
-        <v>22.95</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <v>42740</v>
+        <v>42745</v>
       </c>
       <c r="C15" s="4">
-        <v>116.61</v>
+        <v>119.11</v>
       </c>
       <c r="D15" s="4">
-        <v>813.02</v>
+        <v>826.01</v>
       </c>
       <c r="E15" s="1">
-        <v>22.68</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>42741</v>
+        <v>42746</v>
       </c>
       <c r="C16" s="4">
-        <v>117.91</v>
+        <v>119.75</v>
       </c>
       <c r="D16" s="4">
-        <v>825.21</v>
+        <v>829.86</v>
       </c>
       <c r="E16" s="1">
-        <v>22.68</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>42744</v>
+        <v>42747</v>
       </c>
       <c r="C17" s="4">
-        <v>118.99</v>
+        <v>119.25</v>
       </c>
       <c r="D17" s="4">
-        <v>827.18</v>
+        <v>829.53</v>
       </c>
       <c r="E17" s="1">
-        <v>22.55</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <v>42745</v>
+        <v>42748</v>
       </c>
       <c r="C18" s="4">
-        <v>119.11</v>
+        <v>119.04</v>
       </c>
       <c r="D18" s="4">
-        <v>826.01</v>
+        <v>830.94</v>
       </c>
       <c r="E18" s="1">
-        <v>22.94</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <v>42746</v>
+        <v>42752</v>
       </c>
       <c r="C19" s="4">
-        <v>119.75</v>
+        <v>120</v>
       </c>
       <c r="D19" s="4">
-        <v>829.86</v>
+        <v>827.46</v>
       </c>
       <c r="E19" s="1">
-        <v>23.07</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <v>42747</v>
+        <v>42753</v>
       </c>
       <c r="C20" s="4">
-        <v>119.25</v>
+        <v>119.99</v>
       </c>
       <c r="D20" s="4">
-        <v>829.53</v>
+        <v>829.02</v>
       </c>
       <c r="E20" s="1">
-        <v>22.92</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <v>42748</v>
+        <v>42754</v>
       </c>
       <c r="C21" s="4">
-        <v>119.04</v>
+        <v>119.78</v>
       </c>
       <c r="D21" s="4">
-        <v>830.94</v>
+        <v>824.37</v>
       </c>
       <c r="E21" s="1">
-        <v>23.01</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>42752</v>
+        <v>42755</v>
       </c>
       <c r="C22" s="4">
         <v>120</v>
       </c>
       <c r="D22" s="4">
-        <v>827.46</v>
+        <v>828.17</v>
       </c>
       <c r="E22" s="1">
-        <v>22.05</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>42753</v>
+        <v>42758</v>
       </c>
       <c r="C23" s="4">
-        <v>119.99</v>
+        <v>120.08</v>
       </c>
       <c r="D23" s="4">
-        <v>829.02</v>
+        <v>844.43</v>
       </c>
       <c r="E23" s="1">
-        <v>22.63</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <v>42754</v>
+        <v>42759</v>
       </c>
       <c r="C24" s="4">
-        <v>119.78</v>
+        <v>119.97</v>
       </c>
       <c r="D24" s="4">
-        <v>824.37</v>
+        <v>849.53</v>
       </c>
       <c r="E24" s="1">
-        <v>22.53</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <v>42755</v>
+        <v>42760</v>
       </c>
       <c r="C25" s="4">
-        <v>120</v>
+        <v>121.88</v>
       </c>
       <c r="D25" s="4">
-        <v>828.17</v>
+        <v>858.45</v>
       </c>
       <c r="E25" s="1">
-        <v>22.64</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <v>42758</v>
+        <v>42761</v>
       </c>
       <c r="C26" s="4">
-        <v>120.08</v>
+        <v>121.94</v>
       </c>
       <c r="D26" s="4">
-        <v>844.43</v>
+        <v>856.98</v>
       </c>
       <c r="E26" s="1">
-        <v>22.56</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>42759</v>
+        <v>42762</v>
       </c>
       <c r="C27" s="4">
-        <v>119.97</v>
+        <v>121.95</v>
       </c>
       <c r="D27" s="4">
-        <v>849.53</v>
+        <v>845.03</v>
       </c>
       <c r="E27" s="1">
-        <v>22.95</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>42760</v>
+        <v>42765</v>
       </c>
       <c r="C28" s="4">
-        <v>121.88</v>
+        <v>121.63</v>
       </c>
       <c r="D28" s="4">
-        <v>858.45</v>
+        <v>823.83</v>
       </c>
       <c r="E28" s="1">
-        <v>23.37</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>42761</v>
+        <v>42766</v>
       </c>
       <c r="C29" s="4">
-        <v>121.94</v>
+        <v>121.35</v>
       </c>
       <c r="D29" s="4">
-        <v>856.98</v>
+        <v>820.19</v>
       </c>
       <c r="E29" s="1">
-        <v>23.44</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>42762</v>
+        <v>42767</v>
       </c>
       <c r="C30" s="4">
-        <v>121.95</v>
+        <v>128.75</v>
       </c>
       <c r="D30" s="4">
-        <v>845.03</v>
+        <v>815.24</v>
       </c>
       <c r="E30" s="1">
-        <v>23.36</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>42765</v>
+        <v>42768</v>
       </c>
       <c r="C31" s="4">
-        <v>121.63</v>
+        <v>128.53</v>
       </c>
       <c r="D31" s="4">
-        <v>823.83</v>
+        <v>818.26</v>
       </c>
       <c r="E31" s="1">
-        <v>22.95</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>42766</v>
+        <v>42769</v>
       </c>
       <c r="C32" s="4">
-        <v>121.35</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="D32" s="4">
-        <v>820.19</v>
+        <v>820.13</v>
       </c>
       <c r="E32" s="1">
-        <v>22.64</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <v>42767</v>
+        <v>42772</v>
       </c>
       <c r="C33" s="4">
-        <v>128.75</v>
+        <v>130.29</v>
       </c>
       <c r="D33" s="4">
-        <v>815.24</v>
+        <v>821.62</v>
       </c>
       <c r="E33" s="1">
-        <v>22.89</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <v>42768</v>
+        <v>42773</v>
       </c>
       <c r="C34" s="4">
-        <v>128.53</v>
+        <v>131.53</v>
       </c>
       <c r="D34" s="4">
-        <v>818.26</v>
+        <v>829.23</v>
       </c>
       <c r="E34" s="1">
-        <v>22.72</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
-        <v>42769</v>
+        <v>42774</v>
       </c>
       <c r="C35" s="4">
-        <v>129.08000000000001</v>
+        <v>132.04</v>
       </c>
       <c r="D35" s="4">
-        <v>820.13</v>
+        <v>829.88</v>
       </c>
       <c r="E35" s="1">
-        <v>23.29</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
-        <v>42772</v>
+        <v>42775</v>
       </c>
       <c r="C36" s="4">
-        <v>130.29</v>
+        <v>132.41999999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>821.62</v>
+        <v>830.06</v>
       </c>
       <c r="E36" s="1">
         <v>23.12</v>
@@ -1383,685 +5332,685 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
       <c r="C37" s="4">
-        <v>131.53</v>
+        <v>132.12</v>
       </c>
       <c r="D37" s="4">
-        <v>829.23</v>
+        <v>834.85</v>
       </c>
       <c r="E37" s="1">
-        <v>22.9</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
-        <v>42774</v>
+        <v>42779</v>
       </c>
       <c r="C38" s="4">
-        <v>132.04</v>
+        <v>133.29</v>
       </c>
       <c r="D38" s="4">
-        <v>829.88</v>
+        <v>838.96</v>
       </c>
       <c r="E38" s="1">
-        <v>22.67</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
-        <v>42775</v>
+        <v>42780</v>
       </c>
       <c r="C39" s="4">
-        <v>132.41999999999999</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="D39" s="4">
-        <v>830.06</v>
+        <v>840.03</v>
       </c>
       <c r="E39" s="1">
-        <v>23.12</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
-        <v>42776</v>
+        <v>42781</v>
       </c>
       <c r="C40" s="4">
-        <v>132.12</v>
+        <v>135.51</v>
       </c>
       <c r="D40" s="4">
-        <v>834.85</v>
+        <v>837.32</v>
       </c>
       <c r="E40" s="1">
-        <v>23.08</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="C41" s="4">
-        <v>133.29</v>
+        <v>135.34</v>
       </c>
       <c r="D41" s="4">
-        <v>838.96</v>
+        <v>842.17</v>
       </c>
       <c r="E41" s="1">
-        <v>23.4</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
-        <v>42780</v>
+        <v>42783</v>
       </c>
       <c r="C42" s="4">
-        <v>135.02000000000001</v>
+        <v>135.72</v>
       </c>
       <c r="D42" s="4">
-        <v>840.03</v>
+        <v>846.55</v>
       </c>
       <c r="E42" s="1">
-        <v>24.06</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
-        <v>42781</v>
+        <v>42787</v>
       </c>
       <c r="C43" s="4">
-        <v>135.51</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="D43" s="4">
-        <v>837.32</v>
+        <v>849.27</v>
       </c>
       <c r="E43" s="1">
-        <v>24.58</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
-        <v>42782</v>
+        <v>42788</v>
       </c>
       <c r="C44" s="4">
-        <v>135.34</v>
+        <v>137.11000000000001</v>
       </c>
       <c r="D44" s="4">
-        <v>842.17</v>
+        <v>851.36</v>
       </c>
       <c r="E44" s="1">
-        <v>24.58</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
-        <v>42783</v>
+        <v>42789</v>
       </c>
       <c r="C45" s="4">
-        <v>135.72</v>
+        <v>136.53</v>
       </c>
       <c r="D45" s="4">
-        <v>846.55</v>
+        <v>851</v>
       </c>
       <c r="E45" s="1">
-        <v>24.52</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
-        <v>42787</v>
+        <v>42790</v>
       </c>
       <c r="C46" s="4">
-        <v>136.69999999999999</v>
+        <v>136.66</v>
       </c>
       <c r="D46" s="4">
-        <v>849.27</v>
+        <v>847.81</v>
       </c>
       <c r="E46" s="1">
-        <v>24.78</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
-        <v>42788</v>
+        <v>42793</v>
       </c>
       <c r="C47" s="4">
-        <v>137.11000000000001</v>
+        <v>136.93</v>
       </c>
       <c r="D47" s="4">
-        <v>851.36</v>
+        <v>849.67</v>
       </c>
       <c r="E47" s="1">
-        <v>24.79</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
-        <v>42789</v>
+        <v>42794</v>
       </c>
       <c r="C48" s="4">
-        <v>136.53</v>
+        <v>136.99</v>
       </c>
       <c r="D48" s="4">
-        <v>851</v>
+        <v>844.93</v>
       </c>
       <c r="E48" s="1">
-        <v>24.58</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
-        <v>42790</v>
+        <v>42795</v>
       </c>
       <c r="C49" s="4">
-        <v>136.66</v>
+        <v>139.79</v>
       </c>
       <c r="D49" s="4">
-        <v>847.81</v>
+        <v>856.75</v>
       </c>
       <c r="E49" s="1">
-        <v>24.23</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
-        <v>42793</v>
+        <v>42796</v>
       </c>
       <c r="C50" s="4">
-        <v>136.93</v>
+        <v>138.96</v>
       </c>
       <c r="D50" s="4">
-        <v>849.67</v>
+        <v>849.85</v>
       </c>
       <c r="E50" s="1">
-        <v>24.57</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
-        <v>42794</v>
+        <v>42797</v>
       </c>
       <c r="C51" s="4">
-        <v>136.99</v>
+        <v>139.78</v>
       </c>
       <c r="D51" s="4">
-        <v>844.93</v>
+        <v>849.08</v>
       </c>
       <c r="E51" s="1">
-        <v>24.68</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C52" s="4">
-        <v>139.79</v>
+        <v>139.34</v>
       </c>
       <c r="D52" s="4">
-        <v>856.75</v>
+        <v>847.27</v>
       </c>
       <c r="E52" s="1">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
-        <v>42796</v>
+        <v>42801</v>
       </c>
       <c r="C53" s="4">
-        <v>138.96</v>
+        <v>139.52000000000001</v>
       </c>
       <c r="D53" s="4">
-        <v>849.85</v>
+        <v>851.15</v>
       </c>
       <c r="E53" s="1">
-        <v>25.23</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
-        <v>42797</v>
+        <v>42802</v>
       </c>
       <c r="C54" s="4">
-        <v>139.78</v>
+        <v>139</v>
       </c>
       <c r="D54" s="4">
-        <v>849.08</v>
+        <v>853.64</v>
       </c>
       <c r="E54" s="1">
-        <v>25.44</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
-        <v>42800</v>
+        <v>42803</v>
       </c>
       <c r="C55" s="4">
-        <v>139.34</v>
+        <v>138.68</v>
       </c>
       <c r="D55" s="4">
-        <v>847.27</v>
+        <v>857.84</v>
       </c>
       <c r="E55" s="1">
-        <v>25.25</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
-        <v>42801</v>
+        <v>42804</v>
       </c>
       <c r="C56" s="4">
-        <v>139.52000000000001</v>
+        <v>139.13999999999999</v>
       </c>
       <c r="D56" s="4">
-        <v>851.15</v>
+        <v>861.4</v>
       </c>
       <c r="E56" s="1">
-        <v>25.21</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
-        <v>42802</v>
+        <v>42807</v>
       </c>
       <c r="C57" s="4">
-        <v>139</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="D57" s="4">
-        <v>853.64</v>
+        <v>864.58</v>
       </c>
       <c r="E57" s="1">
-        <v>25.26</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
-        <v>42803</v>
+        <v>42808</v>
       </c>
       <c r="C58" s="4">
-        <v>138.68</v>
+        <v>138.99</v>
       </c>
       <c r="D58" s="4">
-        <v>857.84</v>
+        <v>865.91</v>
       </c>
       <c r="E58" s="1">
-        <v>25.35</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
-        <v>42804</v>
+        <v>42809</v>
       </c>
       <c r="C59" s="4">
-        <v>139.13999999999999</v>
+        <v>140.46</v>
       </c>
       <c r="D59" s="4">
-        <v>861.4</v>
+        <v>868.39</v>
       </c>
       <c r="E59" s="1">
-        <v>25.31</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
-        <v>42807</v>
+        <v>42810</v>
       </c>
       <c r="C60" s="4">
-        <v>139.19999999999999</v>
+        <v>140.69</v>
       </c>
       <c r="D60" s="4">
-        <v>864.58</v>
+        <v>870</v>
       </c>
       <c r="E60" s="1">
-        <v>25.3</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
-        <v>42808</v>
+        <v>42811</v>
       </c>
       <c r="C61" s="4">
-        <v>138.99</v>
+        <v>139.99</v>
       </c>
       <c r="D61" s="4">
-        <v>865.91</v>
+        <v>872.37</v>
       </c>
       <c r="E61" s="1">
-        <v>25.32</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
-        <v>42809</v>
+        <v>42814</v>
       </c>
       <c r="C62" s="4">
-        <v>140.46</v>
+        <v>141.46</v>
       </c>
       <c r="D62" s="4">
-        <v>868.39</v>
+        <v>867.91</v>
       </c>
       <c r="E62" s="1">
-        <v>25.18</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
-        <v>42810</v>
+        <v>42815</v>
       </c>
       <c r="C63" s="4">
-        <v>140.69</v>
+        <v>139.84</v>
       </c>
       <c r="D63" s="4">
-        <v>870</v>
+        <v>850.14</v>
       </c>
       <c r="E63" s="1">
-        <v>25.22</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
-        <v>42811</v>
+        <v>42816</v>
       </c>
       <c r="C64" s="4">
-        <v>139.99</v>
+        <v>141.41999999999999</v>
       </c>
       <c r="D64" s="4">
-        <v>872.37</v>
+        <v>849.8</v>
       </c>
       <c r="E64" s="1">
-        <v>24.86</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
-        <v>42814</v>
+        <v>42817</v>
       </c>
       <c r="C65" s="4">
-        <v>141.46</v>
+        <v>140.91999999999999</v>
       </c>
       <c r="D65" s="4">
-        <v>867.91</v>
+        <v>839.65</v>
       </c>
       <c r="E65" s="1">
-        <v>24.44</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
-        <v>42815</v>
+        <v>42818</v>
       </c>
       <c r="C66" s="4">
-        <v>139.84</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="D66" s="4">
-        <v>850.14</v>
+        <v>835.14</v>
       </c>
       <c r="E66" s="1">
-        <v>23.02</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
-        <v>42816</v>
+        <v>42821</v>
       </c>
       <c r="C67" s="4">
-        <v>141.41999999999999</v>
+        <v>140.88</v>
       </c>
       <c r="D67" s="4">
-        <v>849.8</v>
+        <v>838.51</v>
       </c>
       <c r="E67" s="1">
-        <v>22.94</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
-        <v>42817</v>
+        <v>42822</v>
       </c>
       <c r="C68" s="4">
-        <v>140.91999999999999</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="D68" s="4">
-        <v>839.65</v>
+        <v>840.63</v>
       </c>
       <c r="E68" s="1">
-        <v>23.07</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
-        <v>42818</v>
+        <v>42823</v>
       </c>
       <c r="C69" s="4">
-        <v>140.63999999999999</v>
+        <v>144.12</v>
       </c>
       <c r="D69" s="4">
-        <v>835.14</v>
+        <v>849.87</v>
       </c>
       <c r="E69" s="1">
-        <v>23.12</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
-        <v>42821</v>
+        <v>42824</v>
       </c>
       <c r="C70" s="4">
-        <v>140.88</v>
+        <v>143.93</v>
       </c>
       <c r="D70" s="4">
-        <v>838.51</v>
+        <v>849.48</v>
       </c>
       <c r="E70" s="1">
-        <v>23.03</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
-        <v>42822</v>
+        <v>42825</v>
       </c>
       <c r="C71" s="4">
-        <v>143.80000000000001</v>
+        <v>143.66</v>
       </c>
       <c r="D71" s="4">
-        <v>840.63</v>
+        <v>847.8</v>
       </c>
       <c r="E71" s="1">
-        <v>23.48</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
-        <v>42823</v>
+        <v>42828</v>
       </c>
       <c r="C72" s="4">
-        <v>144.12</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="D72" s="4">
-        <v>849.87</v>
+        <v>856.75</v>
       </c>
       <c r="E72" s="1">
-        <v>23.35</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
-        <v>42824</v>
+        <v>42829</v>
       </c>
       <c r="C73" s="4">
-        <v>143.93</v>
+        <v>144.77000000000001</v>
       </c>
       <c r="D73" s="4">
-        <v>849.48</v>
+        <v>852.57</v>
       </c>
       <c r="E73" s="1">
-        <v>23.87</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="8">
-        <v>42825</v>
+        <v>42830</v>
       </c>
       <c r="C74" s="4">
-        <v>143.66</v>
+        <v>144.02000000000001</v>
       </c>
       <c r="D74" s="4">
-        <v>847.8</v>
+        <v>848.91</v>
       </c>
       <c r="E74" s="1">
-        <v>23.59</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="8">
-        <v>42828</v>
+        <v>42831</v>
       </c>
       <c r="C75" s="4">
-        <v>143.69999999999999</v>
+        <v>143.66</v>
       </c>
       <c r="D75" s="4">
-        <v>856.75</v>
+        <v>845.1</v>
       </c>
       <c r="E75" s="1">
-        <v>23.59</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="8">
-        <v>42829</v>
+        <v>42832</v>
       </c>
       <c r="C76" s="4">
-        <v>144.77000000000001</v>
+        <v>143.34</v>
       </c>
       <c r="D76" s="4">
-        <v>852.57</v>
+        <v>842.1</v>
       </c>
       <c r="E76" s="1">
-        <v>23.44</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="C77" s="4">
-        <v>144.02000000000001</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="D77" s="4">
-        <v>848.91</v>
+        <v>841.7</v>
       </c>
       <c r="E77" s="1">
-        <v>23.17</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
-        <v>42831</v>
+        <v>42836</v>
       </c>
       <c r="C78" s="4">
-        <v>143.66</v>
+        <v>141.63</v>
       </c>
       <c r="D78" s="4">
-        <v>845.1</v>
+        <v>839.88</v>
       </c>
       <c r="E78" s="1">
-        <v>23.26</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
-        <v>42832</v>
+        <v>42837</v>
       </c>
       <c r="C79" s="4">
-        <v>143.34</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="D79" s="4">
-        <v>842.1</v>
+        <v>841.46</v>
       </c>
       <c r="E79" s="1">
-        <v>23.16</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
-        <v>42835</v>
+        <v>42838</v>
       </c>
       <c r="C80" s="4">
-        <v>143.16999999999999</v>
+        <v>141.05000000000001</v>
       </c>
       <c r="D80" s="4">
-        <v>841.7</v>
+        <v>840.18</v>
       </c>
       <c r="E80" s="1">
-        <v>23.02</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
-        <v>42836</v>
+        <v>42842</v>
       </c>
       <c r="C81" s="4">
-        <v>141.63</v>
+        <v>141.83000000000001</v>
       </c>
       <c r="D81" s="4">
-        <v>839.88</v>
+        <v>855.13</v>
       </c>
       <c r="E81" s="1">
-        <v>22.92</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
-        <v>42837</v>
+        <v>42843</v>
       </c>
       <c r="C82" s="4">
-        <v>141.80000000000001</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="D82" s="4">
-        <v>841.46</v>
+        <v>853.99</v>
       </c>
       <c r="E82" s="1">
-        <v>22.65</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
-        <v>42838</v>
+        <v>42844</v>
       </c>
       <c r="C83" s="4">
-        <v>141.05000000000001</v>
+        <v>140.68</v>
       </c>
       <c r="D83" s="4">
-        <v>840.18</v>
+        <v>856.51</v>
       </c>
       <c r="E83" s="1">
-        <v>22.34</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
-        <v>42842</v>
+        <v>42845</v>
       </c>
       <c r="C84" s="4">
-        <v>141.83000000000001</v>
+        <v>142.44</v>
       </c>
       <c r="D84" s="4">
-        <v>855.13</v>
+        <v>860.08</v>
       </c>
       <c r="E84" s="1">
-        <v>22.81</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
-        <v>42843</v>
+        <v>42846</v>
       </c>
       <c r="C85" s="4">
-        <v>141.19999999999999</v>
+        <v>142.27000000000001</v>
       </c>
       <c r="D85" s="4">
-        <v>853.99</v>
+        <v>858.95</v>
       </c>
       <c r="E85" s="1">
         <v>22.71</v>
@@ -2069,483 +6018,453 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="C86" s="4">
-        <v>140.68</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="D86" s="4">
-        <v>856.51</v>
+        <v>878.93</v>
       </c>
       <c r="E86" s="1">
-        <v>22.74</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
-        <v>42845</v>
+        <v>42850</v>
       </c>
       <c r="C87" s="4">
-        <v>142.44</v>
+        <v>144.53</v>
       </c>
       <c r="D87" s="4">
-        <v>860.08</v>
+        <v>888.84</v>
       </c>
       <c r="E87" s="1">
-        <v>23.07</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
-        <v>42846</v>
+        <v>42851</v>
       </c>
       <c r="C88" s="4">
-        <v>142.27000000000001</v>
+        <v>143.68</v>
       </c>
       <c r="D88" s="4">
-        <v>858.95</v>
+        <v>889.14</v>
       </c>
       <c r="E88" s="1">
-        <v>22.71</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="8">
-        <v>42849</v>
+        <v>42852</v>
       </c>
       <c r="C89" s="4">
-        <v>143.63999999999999</v>
+        <v>143.79</v>
       </c>
       <c r="D89" s="4">
-        <v>878.93</v>
+        <v>891.44</v>
       </c>
       <c r="E89" s="1">
-        <v>23.63</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="8">
-        <v>42850</v>
+        <v>42853</v>
       </c>
       <c r="C90" s="4">
-        <v>144.53</v>
+        <v>143.65</v>
       </c>
       <c r="D90" s="4">
-        <v>888.84</v>
+        <v>924.52</v>
       </c>
       <c r="E90" s="1">
-        <v>23.98</v>
-      </c>
+        <v>23.34</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="8">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="C91" s="4">
-        <v>143.68</v>
+        <v>146.58000000000001</v>
       </c>
       <c r="D91" s="4">
-        <v>889.14</v>
+        <v>932.82</v>
       </c>
       <c r="E91" s="1">
-        <v>23.89</v>
-      </c>
+        <v>23.61</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
-        <v>42852</v>
+        <v>42857</v>
       </c>
       <c r="C92" s="4">
-        <v>143.79</v>
+        <v>147.51</v>
       </c>
       <c r="D92" s="4">
-        <v>891.44</v>
+        <v>937.09</v>
       </c>
       <c r="E92" s="1">
-        <v>23.65</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
-        <v>42853</v>
+        <v>42858</v>
       </c>
       <c r="C93" s="4">
-        <v>143.65</v>
+        <v>147.06</v>
       </c>
       <c r="D93" s="4">
-        <v>924.52</v>
+        <v>948.45</v>
       </c>
       <c r="E93" s="1">
-        <v>23.34</v>
+        <v>23.77</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
-        <v>42856</v>
+        <v>42859</v>
       </c>
       <c r="C94" s="4">
-        <v>146.58000000000001</v>
+        <v>146.53</v>
       </c>
       <c r="D94" s="4">
-        <v>932.82</v>
+        <v>954.72</v>
       </c>
       <c r="E94" s="1">
-        <v>23.61</v>
+        <v>23.85</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
-        <v>42857</v>
+        <v>42860</v>
       </c>
       <c r="C95" s="4">
-        <v>147.51</v>
+        <v>148.96</v>
       </c>
       <c r="D95" s="4">
-        <v>937.09</v>
+        <v>950.28</v>
       </c>
       <c r="E95" s="1">
-        <v>23.53</v>
+        <v>23.74</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
-        <v>42858</v>
+        <v>42863</v>
       </c>
       <c r="C96" s="4">
-        <v>147.06</v>
+        <v>153.01</v>
       </c>
       <c r="D96" s="4">
-        <v>948.45</v>
+        <v>958.69</v>
       </c>
       <c r="E96" s="1">
-        <v>23.77</v>
+        <v>23.96</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
-        <v>42859</v>
+        <v>42864</v>
       </c>
       <c r="C97" s="4">
-        <v>146.53</v>
+        <v>153.99</v>
       </c>
       <c r="D97" s="4">
-        <v>954.72</v>
+        <v>956.71</v>
       </c>
       <c r="E97" s="1">
-        <v>23.85</v>
+        <v>23.98</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="8">
-        <v>42860</v>
+        <v>42865</v>
       </c>
       <c r="C98" s="4">
-        <v>148.96</v>
+        <v>153.26</v>
       </c>
       <c r="D98" s="4">
-        <v>950.28</v>
+        <v>954.84</v>
       </c>
       <c r="E98" s="1">
-        <v>23.74</v>
+        <v>24.15</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="8">
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="C99" s="4">
-        <v>153.01</v>
+        <v>153.94999999999999</v>
       </c>
       <c r="D99" s="4">
-        <v>958.69</v>
+        <v>955.89</v>
       </c>
       <c r="E99" s="1">
-        <v>23.96</v>
+        <v>24.07</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="8">
-        <v>42864</v>
+        <v>42867</v>
       </c>
       <c r="C100" s="4">
-        <v>153.99</v>
+        <v>156.1</v>
       </c>
       <c r="D100" s="4">
-        <v>956.71</v>
+        <v>955.14</v>
       </c>
       <c r="E100" s="1">
-        <v>23.98</v>
+        <v>24</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="8">
-        <v>42865</v>
+        <v>42870</v>
       </c>
       <c r="C101" s="4">
-        <v>153.26</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="D101" s="4">
-        <v>954.84</v>
+        <v>959.22</v>
       </c>
       <c r="E101" s="1">
-        <v>24.15</v>
+        <v>24.06</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="8">
-        <v>42866</v>
+        <v>42871</v>
       </c>
       <c r="C102" s="4">
-        <v>153.94999999999999</v>
+        <v>155.47</v>
       </c>
       <c r="D102" s="4">
-        <v>955.89</v>
+        <v>964.61</v>
       </c>
       <c r="E102" s="1">
-        <v>24.07</v>
+        <v>23.99</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="8">
-        <v>42867</v>
+        <v>42872</v>
       </c>
       <c r="C103" s="4">
-        <v>156.1</v>
+        <v>150.25</v>
       </c>
       <c r="D103" s="4">
-        <v>955.14</v>
+        <v>942.17</v>
       </c>
       <c r="E103" s="1">
-        <v>24</v>
+        <v>22.57</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="8">
-        <v>42870</v>
+        <v>42873</v>
       </c>
       <c r="C104" s="4">
-        <v>155.69999999999999</v>
+        <v>152.54</v>
       </c>
       <c r="D104" s="4">
-        <v>959.22</v>
+        <v>950.5</v>
       </c>
       <c r="E104" s="1">
-        <v>24.06</v>
+        <v>22.74</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="8">
-        <v>42871</v>
+        <v>42874</v>
       </c>
       <c r="C105" s="4">
-        <v>155.47</v>
+        <v>153.06</v>
       </c>
       <c r="D105" s="4">
-        <v>964.61</v>
+        <v>954.65</v>
       </c>
       <c r="E105" s="1">
-        <v>23.99</v>
+        <v>23.05</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="8">
-        <v>42872</v>
+        <v>42877</v>
       </c>
       <c r="C106" s="4">
-        <v>150.25</v>
+        <v>153.99</v>
       </c>
       <c r="D106" s="4">
-        <v>942.17</v>
+        <v>964.07</v>
       </c>
       <c r="E106" s="1">
-        <v>22.57</v>
+        <v>23.04</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="8">
-        <v>42873</v>
+        <v>42878</v>
       </c>
       <c r="C107" s="4">
-        <v>152.54</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="D107" s="4">
-        <v>950.5</v>
+        <v>970.55</v>
       </c>
       <c r="E107" s="1">
-        <v>22.74</v>
+        <v>23.39</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="8">
-        <v>42874</v>
+        <v>42879</v>
       </c>
       <c r="C108" s="4">
-        <v>153.06</v>
+        <v>153.34</v>
       </c>
       <c r="D108" s="4">
-        <v>954.65</v>
+        <v>977.61</v>
       </c>
       <c r="E108" s="1">
-        <v>23.05</v>
+        <v>23.36</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="8">
-        <v>42877</v>
+        <v>42880</v>
       </c>
       <c r="C109" s="4">
-        <v>153.99</v>
+        <v>153.87</v>
       </c>
       <c r="D109" s="4">
-        <v>964.07</v>
+        <v>991.86</v>
       </c>
       <c r="E109" s="1">
-        <v>23.04</v>
+        <v>23.25</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="8">
-        <v>42878</v>
+        <v>42881</v>
       </c>
       <c r="C110" s="4">
-        <v>153.80000000000001</v>
+        <v>153.61000000000001</v>
       </c>
       <c r="D110" s="4">
-        <v>970.55</v>
+        <v>993.27</v>
       </c>
       <c r="E110" s="1">
-        <v>23.39</v>
+        <v>23.24</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="8">
-        <v>42879</v>
+        <v>42885</v>
       </c>
       <c r="C111" s="4">
-        <v>153.34</v>
+        <v>153.66999999999999</v>
       </c>
       <c r="D111" s="4">
-        <v>977.61</v>
+        <v>996.17</v>
       </c>
       <c r="E111" s="1">
-        <v>23.36</v>
+        <v>22.91</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="8">
-        <v>42880</v>
+        <v>42886</v>
       </c>
       <c r="C112" s="4">
-        <v>153.87</v>
+        <v>152.76</v>
       </c>
       <c r="D112" s="4">
-        <v>991.86</v>
+        <v>987.09</v>
       </c>
       <c r="E112" s="1">
-        <v>23.25</v>
+        <v>22.41</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="8">
-        <v>42881</v>
+        <v>42887</v>
       </c>
       <c r="C113" s="4">
-        <v>153.61000000000001</v>
+        <v>153.18</v>
       </c>
       <c r="D113" s="4">
-        <v>993.27</v>
+        <v>988.29</v>
       </c>
       <c r="E113" s="1">
-        <v>23.24</v>
+        <v>22.63</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="8">
-        <v>42885</v>
-      </c>
-      <c r="C114" s="4">
-        <v>153.66999999999999</v>
-      </c>
-      <c r="D114" s="4">
-        <v>996.17</v>
-      </c>
-      <c r="E114" s="1">
-        <v>22.91</v>
-      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="8">
-        <v>42886</v>
-      </c>
-      <c r="C115" s="4">
-        <v>152.76</v>
-      </c>
-      <c r="D115" s="4">
-        <v>987.09</v>
-      </c>
-      <c r="E115" s="1">
-        <v>22.41</v>
-      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="8">
-        <v>42887</v>
-      </c>
-      <c r="C116" s="4">
-        <v>153.18</v>
-      </c>
-      <c r="D116" s="4">
-        <v>988.29</v>
-      </c>
-      <c r="E116" s="1">
-        <v>22.63</v>
-      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
@@ -2725,19 +6644,8 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>